--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC07DE89-5AF1-4577-B086-D76D9996ED17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547F380-6939-4AF0-87DC-058D9051AD6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44378.503309837964" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.404706365742" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,13 +1466,13 @@
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,10 +1587,10 @@
         <v>36594.01</v>
       </c>
       <c r="H5" s="3">
-        <v>59997.840000000011</v>
+        <v>42571.380000000012</v>
       </c>
       <c r="I5" s="3">
-        <v>929161.91000000015</v>
+        <v>911735.45000000019</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1614,10 +1614,10 @@
         <v>92</v>
       </c>
       <c r="H6" s="3">
-        <v>44227.129999999976</v>
+        <v>44027.129999999976</v>
       </c>
       <c r="I6" s="3">
-        <v>689370.99</v>
+        <v>689170.99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <v>64248.4</v>
+        <v>80375.78</v>
       </c>
       <c r="I7" s="3">
-        <v>757143.99</v>
+        <v>773271.37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,10 +1670,10 @@
         <v>2829.1600000000003</v>
       </c>
       <c r="H8" s="3">
-        <v>128850.91</v>
+        <v>130631.22</v>
       </c>
       <c r="I8" s="3">
-        <v>811922.55999999994</v>
+        <v>813702.86999999988</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1698,9 +1698,11 @@
       <c r="G9" s="3">
         <v>26177.119999999999</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>81227.710000000036</v>
+      </c>
       <c r="I9" s="3">
-        <v>633978.83000000007</v>
+        <v>715206.54000000015</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,9 +1727,11 @@
       <c r="G10" s="3">
         <v>30305.360000000004</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>113727.76000000001</v>
+      </c>
       <c r="I10" s="3">
-        <v>547209.63</v>
+        <v>660937.39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,9 +1756,11 @@
       <c r="G11" s="3">
         <v>41249.19</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>95379.959999999992</v>
+      </c>
       <c r="I11" s="3">
-        <v>1014313.2200000003</v>
+        <v>1109693.1800000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,9 +1785,11 @@
       <c r="G12" s="3">
         <v>86394.89</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>55151.91</v>
+      </c>
       <c r="I12" s="3">
-        <v>1391982.1999999997</v>
+        <v>1447134.1099999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,11 +1839,11 @@
         <v>180355.66999999995</v>
       </c>
       <c r="G14" s="3">
-        <v>15376.550000000001</v>
+        <v>12720.210000000001</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>646834.11999999988</v>
+        <v>644177.77999999991</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1858,13 +1866,13 @@
         <v>1997592</v>
       </c>
       <c r="G15" s="3">
-        <v>609265.55000000005</v>
+        <v>606609.21</v>
       </c>
       <c r="H15" s="3">
-        <v>436747.35</v>
+        <v>782515.92</v>
       </c>
       <c r="I15" s="3">
-        <v>10521460.380000005</v>
+        <v>10864572.610000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547F380-6939-4AF0-87DC-058D9051AD6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3222CF-FA0F-4FD6-A713-2F6749AC81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Atlastour OLAP 2.odc" keepAlive="1" name="UFSA Travel Документы" type="5" refreshedVersion="6" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Atlastour OLAP 2.odc" keepAlive="1" name="UFSA Travel Документы" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\atlastour;Initial Catalog=AtlasTour Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Доход</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -671,12 +674,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.404706365742" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.959201388891" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="7">
+      <sharedItems count="8">
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
         <s v="[Дата].[Год].&amp;[2016]" c="2016"/>
         <s v="[Дата].[Год].&amp;[2017]" c="2017"/>
@@ -684,6 +687,7 @@
         <s v="[Дата].[Год].&amp;[2019]" c="2019"/>
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
+        <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -905,12 +909,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:J15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -918,6 +922,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -984,7 +989,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="9">
     <i>
       <x/>
     </i>
@@ -1005,6 +1010,9 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1452,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -1463,19 +1471,22 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,10 +1520,13 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1536,10 +1550,13 @@
         <v>58195.08</v>
       </c>
       <c r="I3" s="3">
-        <v>1190624.9000000004</v>
+        <v>664</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1191288.9000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1562,11 +1579,12 @@
       <c r="H4" s="3">
         <v>81227.990000000005</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>944335.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1589,11 +1607,12 @@
       <c r="H5" s="3">
         <v>42571.380000000012</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>911735.45000000019</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1616,11 +1635,12 @@
       <c r="H6" s="3">
         <v>44027.129999999976</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>689170.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1637,17 +1657,18 @@
         <v>171244.74999999997</v>
       </c>
       <c r="F7" s="3">
-        <v>165294.87</v>
+        <v>165294.86999999997</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>80375.78</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>773271.37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1672,11 +1693,12 @@
       <c r="H8" s="3">
         <v>130631.22</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>813702.86999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1701,11 +1723,12 @@
       <c r="H9" s="3">
         <v>81227.710000000036</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>715206.54000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1730,11 +1753,12 @@
       <c r="H10" s="3">
         <v>113727.76000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>660937.39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1757,13 +1781,14 @@
         <v>41249.19</v>
       </c>
       <c r="H11" s="3">
-        <v>95379.959999999992</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1109693.1800000004</v>
+        <v>95981.959999999992</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>1110295.1800000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1786,13 +1811,14 @@
         <v>86394.89</v>
       </c>
       <c r="H12" s="3">
-        <v>55151.91</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1447134.1099999996</v>
+        <v>79154.689999999988</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>1471136.8899999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1814,12 +1840,15 @@
       <c r="G13" s="3">
         <v>34859.740000000005</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>964582.73</v>
+      <c r="H13" s="3">
+        <v>303153.81</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>1267736.54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1841,12 +1870,15 @@
       <c r="G14" s="3">
         <v>12720.210000000001</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>644177.77999999991</v>
+      <c r="H14" s="3">
+        <v>137091.67999999996</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>781269.45999999985</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1869,10 +1901,13 @@
         <v>606609.21</v>
       </c>
       <c r="H15" s="3">
-        <v>782515.92</v>
+        <v>1247366.19</v>
       </c>
       <c r="I15" s="3">
-        <v>10864572.610000007</v>
+        <v>664</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11330086.880000008</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3222CF-FA0F-4FD6-A713-2F6749AC81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC8E3D4-6468-4938-8FF1-3FB81DED8513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.959201388891" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44582.435303472223" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1473,17 +1473,17 @@
     <col min="3" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>58195.08</v>
       </c>
       <c r="I3" s="3">
-        <v>664</v>
+        <v>21737</v>
       </c>
       <c r="J3" s="3">
-        <v>1191288.9000000004</v>
+        <v>1212361.9000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1871,11 +1871,11 @@
         <v>12720.210000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>137091.67999999996</v>
+        <v>137239.00999999995</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3">
-        <v>781269.45999999985</v>
+        <v>781416.7899999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,13 +1901,13 @@
         <v>606609.21</v>
       </c>
       <c r="H15" s="3">
-        <v>1247366.19</v>
+        <v>1247513.52</v>
       </c>
       <c r="I15" s="3">
-        <v>664</v>
+        <v>21737</v>
       </c>
       <c r="J15" s="3">
-        <v>11330086.880000008</v>
+        <v>11351307.210000008</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC8E3D4-6468-4938-8FF1-3FB81DED8513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571322E-4522-4F39-B5E0-8B829D3724E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44582.435303472223" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.890604976848" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,14 +1473,14 @@
     <col min="3" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -1550,10 +1550,10 @@
         <v>58195.08</v>
       </c>
       <c r="I3" s="3">
-        <v>21737</v>
+        <v>68276.920000000013</v>
       </c>
       <c r="J3" s="3">
-        <v>1212361.9000000004</v>
+        <v>1258901.8200000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,9 +1579,11 @@
       <c r="H4" s="3">
         <v>81227.990000000005</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>31272.03</v>
+      </c>
       <c r="J4" s="3">
-        <v>944335.3</v>
+        <v>975607.33000000007</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1607,9 +1609,11 @@
       <c r="H5" s="3">
         <v>42571.380000000012</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>7369.26</v>
+      </c>
       <c r="J5" s="3">
-        <v>911735.45000000019</v>
+        <v>919104.7100000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1635,9 +1639,11 @@
       <c r="H6" s="3">
         <v>44027.129999999976</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>3808</v>
+      </c>
       <c r="J6" s="3">
-        <v>689170.99</v>
+        <v>692978.99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1663,9 +1669,11 @@
       <c r="H7" s="3">
         <v>80375.78</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>25762.71</v>
+      </c>
       <c r="J7" s="3">
-        <v>773271.37</v>
+        <v>799034.08</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,9 +1701,11 @@
       <c r="H8" s="3">
         <v>130631.22</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>22565.66</v>
+      </c>
       <c r="J8" s="3">
-        <v>813702.86999999988</v>
+        <v>836268.52999999991</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1904,10 +1914,10 @@
         <v>1247513.52</v>
       </c>
       <c r="I15" s="3">
-        <v>21737</v>
+        <v>159054.58000000002</v>
       </c>
       <c r="J15" s="3">
-        <v>11351307.210000008</v>
+        <v>11488624.790000008</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571322E-4522-4F39-B5E0-8B829D3724E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414E2CB-5BEC-416F-B000-E7069265DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Доход</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -674,12 +677,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.890604976848" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44978.788858333333" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
         <s v="[Дата].[Год].&amp;[2016]" c="2016"/>
         <s v="[Дата].[Год].&amp;[2017]" c="2017"/>
@@ -688,6 +691,7 @@
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
+        <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -910,11 +914,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:J15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:K15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="8">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -923,6 +927,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -989,7 +994,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -1013,6 +1018,9 @@
     </i>
     <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1460,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,19 +1482,21 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1523,10 +1533,13 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1553,10 +1566,13 @@
         <v>68276.920000000013</v>
       </c>
       <c r="J3" s="3">
-        <v>1258901.8200000003</v>
+        <v>69872.989999999991</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1328774.8100000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1583,10 +1599,13 @@
         <v>31272.03</v>
       </c>
       <c r="J4" s="3">
-        <v>975607.33000000007</v>
+        <v>9555.3299999999981</v>
+      </c>
+      <c r="K4" s="3">
+        <v>985162.66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1612,11 +1631,12 @@
       <c r="I5" s="3">
         <v>7369.26</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>919104.7100000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1642,11 +1662,12 @@
       <c r="I6" s="3">
         <v>3808</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>692978.99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1672,11 +1693,12 @@
       <c r="I7" s="3">
         <v>25762.71</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>799034.08</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1704,11 +1726,12 @@
       <c r="I8" s="3">
         <v>22565.66</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>836268.52999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1733,12 +1756,15 @@
       <c r="H9" s="3">
         <v>81227.710000000036</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>715206.54000000015</v>
+      <c r="I9" s="3">
+        <v>80456.95</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>795663.49000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1763,12 +1789,15 @@
       <c r="H10" s="3">
         <v>113727.76000000001</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>660937.39</v>
+      <c r="I10" s="3">
+        <v>3005.01</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>663942.40000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1793,12 +1822,15 @@
       <c r="H11" s="3">
         <v>95981.959999999992</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>1110295.1800000004</v>
+      <c r="I11" s="3">
+        <v>958.42</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>1111253.6000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1823,12 +1855,15 @@
       <c r="H12" s="3">
         <v>79154.689999999988</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>1471136.8899999997</v>
+      <c r="I12" s="3">
+        <v>7119.67</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>1478256.5599999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1853,12 +1888,15 @@
       <c r="H13" s="3">
         <v>303153.81</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>1267736.54</v>
+      <c r="I13" s="3">
+        <v>8840.07</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>1276576.6100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1883,12 +1921,15 @@
       <c r="H14" s="3">
         <v>137239.00999999995</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>781416.7899999998</v>
+      <c r="I14" s="3">
+        <v>37710.400000000001</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>819127.18999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1914,10 +1955,13 @@
         <v>1247513.52</v>
       </c>
       <c r="I15" s="3">
-        <v>159054.58000000002</v>
+        <v>297145.10000000003</v>
       </c>
       <c r="J15" s="3">
-        <v>11488624.790000008</v>
+        <v>79428.319999999992</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11706143.630000008</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414E2CB-5BEC-416F-B000-E7069265DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D4A91-DA6F-4C91-A4E6-490883AA2677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Atlastour OLAP 2.odc" keepAlive="1" name="UFSA Travel Документы" type="5" refreshedVersion="7" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Atlastour OLAP 2.odc" keepAlive="1" name="UFSA Travel Документы" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\atlastour;Initial Catalog=AtlasTour Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44978.788858333333" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.448586574072" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:K15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1471,32 +1471,31 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>58195.08</v>
       </c>
       <c r="I3" s="3">
-        <v>68276.920000000013</v>
+        <v>68276.92</v>
       </c>
       <c r="J3" s="3">
         <v>69872.989999999991</v>
@@ -1572,7 +1571,7 @@
         <v>1328774.8100000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1599,13 +1598,13 @@
         <v>31272.03</v>
       </c>
       <c r="J4" s="3">
-        <v>9555.3299999999981</v>
+        <v>9907.9600000000046</v>
       </c>
       <c r="K4" s="3">
-        <v>985162.66</v>
+        <v>985515.29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1626,17 +1625,19 @@
         <v>36594.01</v>
       </c>
       <c r="H5" s="3">
-        <v>42571.380000000012</v>
+        <v>42571.380000000005</v>
       </c>
       <c r="I5" s="3">
         <v>7369.26</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>19127.68</v>
+      </c>
       <c r="K5" s="3">
-        <v>919104.7100000002</v>
+        <v>938232.39000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1662,12 +1663,14 @@
       <c r="I6" s="3">
         <v>3808</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>63400.69000000001</v>
+      </c>
       <c r="K6" s="3">
-        <v>692978.99</v>
+        <v>756379.68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1693,17 +1696,19 @@
       <c r="I7" s="3">
         <v>25762.71</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>95703.450000000012</v>
+      </c>
       <c r="K7" s="3">
-        <v>799034.08</v>
+        <v>894737.53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>133914.65</v>
+        <v>133914.65000000002</v>
       </c>
       <c r="C8" s="3">
         <v>109265.62999999999</v>
@@ -1726,12 +1731,14 @@
       <c r="I8" s="3">
         <v>22565.66</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>177517.54999999996</v>
+      </c>
       <c r="K8" s="3">
-        <v>836268.52999999991</v>
+        <v>1013786.08</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1759,12 +1766,14 @@
       <c r="I9" s="3">
         <v>80456.95</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>95834.030000000013</v>
+      </c>
       <c r="K9" s="3">
-        <v>795663.49000000011</v>
+        <v>891497.52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1792,12 +1801,14 @@
       <c r="I10" s="3">
         <v>3005.01</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>104807.87</v>
+      </c>
       <c r="K10" s="3">
-        <v>663942.40000000002</v>
+        <v>768750.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1825,12 +1836,14 @@
       <c r="I11" s="3">
         <v>958.42</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>45510.570000000022</v>
+      </c>
       <c r="K11" s="3">
-        <v>1111253.6000000003</v>
+        <v>1156764.1700000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>1478256.5599999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1896,7 +1909,7 @@
         <v>1276576.6100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>819127.18999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1958,10 +1971,10 @@
         <v>297145.10000000003</v>
       </c>
       <c r="J15" s="3">
-        <v>79428.319999999992</v>
+        <v>681682.79000000015</v>
       </c>
       <c r="K15" s="3">
-        <v>11706143.630000008</v>
+        <v>12308398.100000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D4A91-DA6F-4C91-A4E6-490883AA2677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF4C5C-3B5F-4822-ADDB-A6914E877B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.448586574072" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45204.559851967591" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1470,32 +1470,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1328774.8100000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>985515.29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>938232.39000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>756379.68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>894737.53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1013786.08</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>891497.52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>768750.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1837,13 +1837,13 @@
         <v>958.42</v>
       </c>
       <c r="J11" s="3">
-        <v>45510.570000000022</v>
+        <v>110041.34999999998</v>
       </c>
       <c r="K11" s="3">
-        <v>1156764.1700000004</v>
+        <v>1221294.9500000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1871,12 +1871,14 @@
       <c r="I12" s="3">
         <v>7119.67</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>7836.7300000000005</v>
+      </c>
       <c r="K12" s="3">
-        <v>1478256.5599999996</v>
+        <v>1486093.2899999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>1276576.6100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>819127.18999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1971,10 +1973,10 @@
         <v>297145.10000000003</v>
       </c>
       <c r="J15" s="3">
-        <v>681682.79000000015</v>
+        <v>754050.3</v>
       </c>
       <c r="K15" s="3">
-        <v>12308398.100000007</v>
+        <v>12380765.610000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF4C5C-3B5F-4822-ADDB-A6914E877B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABD6C6-C3B0-465D-B7DC-FB8EE016B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="183" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Доход</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -677,12 +680,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45204.559851967591" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.432496296293" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
         <s v="[Дата].[Год].&amp;[2016]" c="2016"/>
         <s v="[Дата].[Год].&amp;[2017]" c="2017"/>
@@ -692,6 +695,7 @@
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
+        <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -913,12 +917,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:K15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:L15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -928,6 +932,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -994,7 +999,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="11">
     <i>
       <x/>
     </i>
@@ -1021,6 +1026,9 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1172,9 +1180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1212,7 +1220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1318,7 +1326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1460,7 +1468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1468,34 +1476,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,10 +1546,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1568,10 +1582,13 @@
         <v>69872.989999999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1328774.8100000003</v>
+        <v>82579.039999999994</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1411353.8500000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1601,10 +1618,13 @@
         <v>9907.9600000000046</v>
       </c>
       <c r="K4" s="3">
-        <v>985515.29</v>
+        <v>64624.039999999986</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1050139.33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1633,11 +1653,12 @@
       <c r="J5" s="3">
         <v>19127.68</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>938232.39000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1666,11 +1687,12 @@
       <c r="J6" s="3">
         <v>63400.69000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>756379.68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1699,16 +1721,17 @@
       <c r="J7" s="3">
         <v>95703.450000000012</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>894737.53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>133914.65000000002</v>
+        <v>133914.65</v>
       </c>
       <c r="C8" s="3">
         <v>109265.62999999999</v>
@@ -1732,18 +1755,19 @@
         <v>22565.66</v>
       </c>
       <c r="J8" s="3">
-        <v>177517.54999999996</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1013786.08</v>
+        <v>185693.95</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>1021962.4799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>135197.93000000005</v>
+        <v>135197.93000000008</v>
       </c>
       <c r="C9" s="3">
         <v>128536.99</v>
@@ -1767,13 +1791,14 @@
         <v>80456.95</v>
       </c>
       <c r="J9" s="3">
-        <v>95834.030000000013</v>
-      </c>
-      <c r="K9" s="3">
-        <v>891497.52</v>
+        <v>101697.73000000003</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>897361.22000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1802,18 +1827,19 @@
         <v>3005.01</v>
       </c>
       <c r="J10" s="3">
-        <v>104807.87</v>
-      </c>
-      <c r="K10" s="3">
+        <v>104807.87000000001</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>768750.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>139328.69</v>
+        <v>139328.69000000012</v>
       </c>
       <c r="C11" s="3">
         <v>264560.64000000007</v>
@@ -1837,13 +1863,14 @@
         <v>958.42</v>
       </c>
       <c r="J11" s="3">
-        <v>110041.34999999998</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1221294.9500000002</v>
+        <v>107394.95000000001</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1218648.5500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1872,13 +1899,14 @@
         <v>7119.67</v>
       </c>
       <c r="J12" s="3">
-        <v>7836.7300000000005</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1486093.2899999996</v>
+        <v>80508.459999999992</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1558765.0199999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1906,12 +1934,15 @@
       <c r="I13" s="3">
         <v>8840.07</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>1276576.6100000001</v>
+      <c r="J13" s="3">
+        <v>218195.66</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1494772.2700000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1939,12 +1970,15 @@
       <c r="I14" s="3">
         <v>37710.400000000001</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>819127.18999999983</v>
+      <c r="J14" s="3">
+        <v>74539.790000000008</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>893666.97999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1973,10 +2007,13 @@
         <v>297145.10000000003</v>
       </c>
       <c r="J15" s="3">
-        <v>754050.3</v>
+        <v>1130851.18</v>
       </c>
       <c r="K15" s="3">
-        <v>12380765.610000007</v>
+        <v>147203.07999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>12904769.57</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABD6C6-C3B0-465D-B7DC-FB8EE016B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566C3D1-8DB1-4CEA-8CA5-8F1B9B3308AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="183" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.432496296293" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.345546875003" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="183" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:L15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1478,35 +1478,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1411353.8500000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1618,13 +1618,13 @@
         <v>9907.9600000000046</v>
       </c>
       <c r="K4" s="3">
-        <v>64624.039999999986</v>
+        <v>174188.61000000004</v>
       </c>
       <c r="L4" s="3">
-        <v>1050139.33</v>
+        <v>1159703.9000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1653,12 +1653,14 @@
       <c r="J5" s="3">
         <v>19127.68</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>62642.799999999996</v>
+      </c>
       <c r="L5" s="3">
-        <v>938232.39000000025</v>
+        <v>1000875.1900000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>756379.68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>894737.53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>1021962.4799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>897361.22000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>768750.27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>1218648.5500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>1558765.0199999996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>1494772.2700000003</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>893666.97999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2010,10 +2012,10 @@
         <v>1130851.18</v>
       </c>
       <c r="K15" s="3">
-        <v>147203.07999999999</v>
+        <v>319410.45</v>
       </c>
       <c r="L15" s="3">
-        <v>12904769.57</v>
+        <v>13076976.940000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566C3D1-8DB1-4CEA-8CA5-8F1B9B3308AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A7DCB-49E3-4ABE-9476-C5C54CECC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.345546875003" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.48728090278" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1482,31 +1482,31 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1411353.8500000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1618,13 +1618,13 @@
         <v>9907.9600000000046</v>
       </c>
       <c r="K4" s="3">
-        <v>174188.61000000004</v>
+        <v>161309.43000000005</v>
       </c>
       <c r="L4" s="3">
-        <v>1159703.9000000001</v>
+        <v>1146824.7200000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1654,13 +1654,13 @@
         <v>19127.68</v>
       </c>
       <c r="K5" s="3">
-        <v>62642.799999999996</v>
+        <v>111303.7</v>
       </c>
       <c r="L5" s="3">
-        <v>1000875.1900000003</v>
+        <v>1049536.0900000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1689,12 +1689,14 @@
       <c r="J6" s="3">
         <v>63400.69000000001</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>250706.93000000011</v>
+      </c>
       <c r="L6" s="3">
-        <v>756379.68</v>
+        <v>1007086.6100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>11329.86</v>
       </c>
       <c r="C7" s="3">
-        <v>199297.86000000004</v>
+        <v>199297.86000000007</v>
       </c>
       <c r="D7" s="3">
         <v>145728.25</v>
@@ -1723,12 +1725,14 @@
       <c r="J7" s="3">
         <v>95703.450000000012</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>106810.75000000001</v>
+      </c>
       <c r="L7" s="3">
-        <v>894737.53</v>
+        <v>1001548.28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1759,12 +1763,14 @@
       <c r="J8" s="3">
         <v>185693.95</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>138428.49999999997</v>
+      </c>
       <c r="L8" s="3">
-        <v>1021962.4799999999</v>
+        <v>1160390.9799999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>897361.22000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>768750.27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>139328.69000000012</v>
       </c>
       <c r="C11" s="3">
-        <v>264560.64000000007</v>
+        <v>264560.64000000001</v>
       </c>
       <c r="D11" s="3">
         <v>172881.45000000004</v>
@@ -1872,7 +1878,7 @@
         <v>1218648.5500000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>1558765.0199999996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>1494772.2700000003</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>893666.97999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2012,10 +2018,10 @@
         <v>1130851.18</v>
       </c>
       <c r="K15" s="3">
-        <v>319410.45</v>
+        <v>851138.35000000009</v>
       </c>
       <c r="L15" s="3">
-        <v>13076976.940000001</v>
+        <v>13608704.84</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/AtlasTour.Profit.xlsx
+++ b/src/OLAP/DataSources/AtlasTour.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A7DCB-49E3-4ABE-9476-C5C54CECC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC739BF-050F-4A87-A3D7-9F4FAD63C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlastour OLAP 2" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Доход</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -680,12 +683,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.48728090278" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="nestor" refreshedDate="45667.81380625" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
         <s v="[Дата].[Год].&amp;[2016]" c="2016"/>
         <s v="[Дата].[Год].&amp;[2017]" c="2017"/>
@@ -696,6 +699,7 @@
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
         <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
+        <s v="[Дата].[Год].&amp;[2025]" c="2025"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -918,11 +922,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:L15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -933,6 +937,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -999,7 +1004,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="11">
+  <colItems count="12">
     <i>
       <x/>
     </i>
@@ -1029,6 +1034,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1476,37 +1484,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1549,130 +1558,138 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
-        <v>118865.26000000004</v>
+        <v>118865.26000000002</v>
       </c>
       <c r="D3" s="3">
-        <v>357565.21000000008</v>
+        <v>357565.20999999996</v>
       </c>
       <c r="E3" s="3">
-        <v>155258.46999999994</v>
+        <v>155258.46999999997</v>
       </c>
       <c r="F3" s="3">
-        <v>261265.8000000001</v>
+        <v>261265.80000000002</v>
       </c>
       <c r="G3" s="3">
-        <v>239475.08000000005</v>
+        <v>239475.08</v>
       </c>
       <c r="H3" s="3">
-        <v>58195.08</v>
+        <v>58195.080000000009</v>
       </c>
       <c r="I3" s="3">
         <v>68276.92</v>
       </c>
       <c r="J3" s="3">
-        <v>69872.989999999991</v>
+        <v>69872.99000000002</v>
       </c>
       <c r="K3" s="3">
         <v>82579.039999999994</v>
       </c>
       <c r="L3" s="3">
-        <v>1411353.8500000003</v>
+        <v>30729.369999999995</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1442083.2200000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>181323.81999999992</v>
+        <v>181323.81999999998</v>
       </c>
       <c r="D4" s="3">
-        <v>226371.91000000012</v>
+        <v>226371.91000000003</v>
       </c>
       <c r="E4" s="3">
-        <v>163279.03000000003</v>
+        <v>163279.03</v>
       </c>
       <c r="F4" s="3">
         <v>196220.1</v>
       </c>
       <c r="G4" s="3">
-        <v>95912.45</v>
+        <v>95912.449999999983</v>
       </c>
       <c r="H4" s="3">
-        <v>81227.990000000005</v>
+        <v>81227.989999999991</v>
       </c>
       <c r="I4" s="3">
-        <v>31272.03</v>
+        <v>31272.030000000006</v>
       </c>
       <c r="J4" s="3">
-        <v>9907.9600000000046</v>
+        <v>9907.9599999999973</v>
       </c>
       <c r="K4" s="3">
-        <v>161309.43000000005</v>
-      </c>
-      <c r="L4" s="3">
+        <v>161309.42999999996</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
         <v>1146824.7200000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>122033.41000000002</v>
+        <v>122033.41</v>
       </c>
       <c r="D5" s="3">
-        <v>388190.71999999997</v>
+        <v>388190.72000000003</v>
       </c>
       <c r="E5" s="3">
-        <v>225947.8000000001</v>
+        <v>225947.80000000008</v>
       </c>
       <c r="F5" s="3">
-        <v>96398.12999999999</v>
+        <v>96398.13</v>
       </c>
       <c r="G5" s="3">
-        <v>36594.01</v>
+        <v>36594.009999999995</v>
       </c>
       <c r="H5" s="3">
-        <v>42571.380000000005</v>
+        <v>42571.38</v>
       </c>
       <c r="I5" s="3">
         <v>7369.26</v>
       </c>
       <c r="J5" s="3">
-        <v>19127.68</v>
+        <v>19127.680000000004</v>
       </c>
       <c r="K5" s="3">
-        <v>111303.7</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1049536.0900000003</v>
+        <v>111303.69999999998</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>1049536.0899999994</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>147754.53000000006</v>
+        <v>147754.52999999997</v>
       </c>
       <c r="D6" s="3">
-        <v>134494.98999999996</v>
+        <v>134494.99000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>157951.40000000005</v>
+        <v>157951.4</v>
       </c>
       <c r="F6" s="3">
         <v>204850.93999999997</v>
@@ -1681,7 +1698,7 @@
         <v>92</v>
       </c>
       <c r="H6" s="3">
-        <v>44027.129999999976</v>
+        <v>44027.130000000005</v>
       </c>
       <c r="I6" s="3">
         <v>3808</v>
@@ -1690,13 +1707,14 @@
         <v>63400.69000000001</v>
       </c>
       <c r="K6" s="3">
-        <v>250706.93000000011</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1007086.6100000001</v>
+        <v>250699.93000000005</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>1007079.6100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1722,7 @@
         <v>11329.86</v>
       </c>
       <c r="C7" s="3">
-        <v>199297.86000000007</v>
+        <v>199297.86000000002</v>
       </c>
       <c r="D7" s="3">
         <v>145728.25</v>
@@ -1713,7 +1731,7 @@
         <v>171244.74999999997</v>
       </c>
       <c r="F7" s="3">
-        <v>165294.86999999997</v>
+        <v>165294.87</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
@@ -1723,16 +1741,17 @@
         <v>25762.71</v>
       </c>
       <c r="J7" s="3">
-        <v>95703.450000000012</v>
+        <v>95703.45</v>
       </c>
       <c r="K7" s="3">
-        <v>106810.75000000001</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1001548.28</v>
+        <v>106810.74999999999</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>1001548.2799999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1740,19 +1759,19 @@
         <v>133914.65</v>
       </c>
       <c r="C8" s="3">
-        <v>109265.62999999999</v>
+        <v>109265.63</v>
       </c>
       <c r="D8" s="3">
-        <v>132671.08000000002</v>
+        <v>132671.07999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>188217.97</v>
+        <v>188217.96999999997</v>
       </c>
       <c r="F8" s="3">
-        <v>116173.16</v>
+        <v>116173.15999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>2829.1600000000003</v>
+        <v>2829.16</v>
       </c>
       <c r="H8" s="3">
         <v>130631.22</v>
@@ -1764,264 +1783,286 @@
         <v>185693.95</v>
       </c>
       <c r="K8" s="3">
-        <v>138428.49999999997</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1160390.9799999997</v>
+        <v>159449</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1181411.4799999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>135197.93000000008</v>
+        <v>135197.93000000005</v>
       </c>
       <c r="C9" s="3">
         <v>128536.99</v>
       </c>
       <c r="D9" s="3">
-        <v>90926.00999999998</v>
+        <v>90926.01</v>
       </c>
       <c r="E9" s="3">
-        <v>103610.43000000002</v>
+        <v>103610.43000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>149530.34999999998</v>
+        <v>149530.35000000003</v>
       </c>
       <c r="G9" s="3">
         <v>26177.119999999999</v>
       </c>
       <c r="H9" s="3">
-        <v>81227.710000000036</v>
+        <v>81227.710000000006</v>
       </c>
       <c r="I9" s="3">
-        <v>80456.95</v>
+        <v>80456.950000000012</v>
       </c>
       <c r="J9" s="3">
-        <v>101697.73000000003</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>897361.22000000009</v>
+        <v>101697.73</v>
+      </c>
+      <c r="K9" s="3">
+        <v>244562.62000000002</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>1141923.8400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>105539.47000000003</v>
+        <v>105539.47</v>
       </c>
       <c r="C10" s="3">
-        <v>129118.93999999999</v>
+        <v>129118.94</v>
       </c>
       <c r="D10" s="3">
-        <v>82175.319999999992</v>
+        <v>82175.320000000007</v>
       </c>
       <c r="E10" s="3">
-        <v>107282.87999999999</v>
+        <v>107282.88</v>
       </c>
       <c r="F10" s="3">
         <v>92787.659999999989</v>
       </c>
       <c r="G10" s="3">
-        <v>30305.360000000004</v>
+        <v>30305.360000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>113727.76000000001</v>
+        <v>113727.76</v>
       </c>
       <c r="I10" s="3">
         <v>3005.01</v>
       </c>
       <c r="J10" s="3">
-        <v>104807.87000000001</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>768750.27</v>
+        <v>104807.87</v>
+      </c>
+      <c r="K10" s="3">
+        <v>150061.78</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>918812.04999999958</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>139328.69000000012</v>
+        <v>139328.69000000003</v>
       </c>
       <c r="C11" s="3">
         <v>264560.64000000001</v>
       </c>
       <c r="D11" s="3">
-        <v>172881.45000000004</v>
+        <v>172881.44999999998</v>
       </c>
       <c r="E11" s="3">
-        <v>238567.88000000003</v>
+        <v>238567.88</v>
       </c>
       <c r="F11" s="3">
-        <v>157725.37000000002</v>
+        <v>157725.37</v>
       </c>
       <c r="G11" s="3">
-        <v>41249.19</v>
+        <v>41249.19000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>95981.959999999992</v>
+        <v>95981.960000000021</v>
       </c>
       <c r="I11" s="3">
-        <v>958.42</v>
+        <v>958.42000000000007</v>
       </c>
       <c r="J11" s="3">
-        <v>107394.95000000001</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1218648.5500000003</v>
+        <v>107394.95</v>
+      </c>
+      <c r="K11" s="3">
+        <v>287071.19999999995</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>1505719.7499999993</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>140549.57000000004</v>
+        <v>140549.57</v>
       </c>
       <c r="C12" s="3">
-        <v>168078.35000000003</v>
+        <v>168078.35</v>
       </c>
       <c r="D12" s="3">
-        <v>371980.19</v>
+        <v>371980.18999999989</v>
       </c>
       <c r="E12" s="3">
-        <v>442532.11999999965</v>
+        <v>442532.12</v>
       </c>
       <c r="F12" s="3">
-        <v>182447.08000000002</v>
+        <v>182447.07999999996</v>
       </c>
       <c r="G12" s="3">
-        <v>86394.89</v>
+        <v>86394.889999999985</v>
       </c>
       <c r="H12" s="3">
         <v>79154.689999999988</v>
       </c>
       <c r="I12" s="3">
-        <v>7119.67</v>
+        <v>7119.670000000001</v>
       </c>
       <c r="J12" s="3">
         <v>80508.459999999992</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1558765.0199999996</v>
+      <c r="K12" s="3">
+        <v>189623.66</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>1748388.6800000004</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3">
-        <v>182281.12999999998</v>
+        <v>182281.12999999995</v>
       </c>
       <c r="C13" s="3">
         <v>195748.27999999997</v>
       </c>
       <c r="D13" s="3">
-        <v>153559.51999999993</v>
+        <v>153559.51999999999</v>
       </c>
       <c r="E13" s="3">
-        <v>203591.19000000012</v>
+        <v>203591.18999999997</v>
       </c>
       <c r="F13" s="3">
-        <v>194542.87000000002</v>
+        <v>194542.86999999997</v>
       </c>
       <c r="G13" s="3">
         <v>34859.740000000005</v>
       </c>
       <c r="H13" s="3">
-        <v>303153.81</v>
+        <v>303153.81000000006</v>
       </c>
       <c r="I13" s="3">
-        <v>8840.07</v>
+        <v>8840.0699999999979</v>
       </c>
       <c r="J13" s="3">
-        <v>218195.66</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>1494772.2700000003</v>
+        <v>218195.65999999997</v>
+      </c>
+      <c r="K13" s="3">
+        <v>225410.27000000002</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>1720182.5399999996</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>98208.89999999998</v>
+        <v>98208.9</v>
       </c>
       <c r="C14" s="3">
-        <v>137314.87000000005</v>
+        <v>137314.87</v>
       </c>
       <c r="D14" s="3">
-        <v>139918.66999999993</v>
+        <v>139918.66999999998</v>
       </c>
       <c r="E14" s="3">
-        <v>75659.460000000021</v>
+        <v>75659.460000000006</v>
       </c>
       <c r="F14" s="3">
-        <v>180355.66999999995</v>
+        <v>180355.66999999998</v>
       </c>
       <c r="G14" s="3">
-        <v>12720.210000000001</v>
+        <v>12720.21</v>
       </c>
       <c r="H14" s="3">
-        <v>137239.00999999995</v>
+        <v>137239.00999999998</v>
       </c>
       <c r="I14" s="3">
         <v>37710.400000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>74539.790000000008</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>893666.97999999986</v>
+        <v>74539.789999999994</v>
+      </c>
+      <c r="K14" s="3">
+        <v>123739.37000000001</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>1017406.3500000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>946350.20000000019</v>
+        <v>946350.20000000077</v>
       </c>
       <c r="C15" s="3">
-        <v>1901898.5800000003</v>
+        <v>1901898.5800000017</v>
       </c>
       <c r="D15" s="3">
         <v>2396463.3199999998</v>
       </c>
       <c r="E15" s="3">
-        <v>2233143.38</v>
+        <v>2233143.379999999</v>
       </c>
       <c r="F15" s="3">
-        <v>1997592</v>
+        <v>1997592.0000000007</v>
       </c>
       <c r="G15" s="3">
-        <v>606609.21</v>
+        <v>606609.21000000008</v>
       </c>
       <c r="H15" s="3">
-        <v>1247513.52</v>
+        <v>1247513.5199999998</v>
       </c>
       <c r="I15" s="3">
         <v>297145.10000000003</v>
       </c>
       <c r="J15" s="3">
-        <v>1130851.18</v>
+        <v>1130851.1800000002</v>
       </c>
       <c r="K15" s="3">
-        <v>851138.35000000009</v>
+        <v>2092620.75</v>
       </c>
       <c r="L15" s="3">
-        <v>13608704.84</v>
+        <v>30729.369999999995</v>
+      </c>
+      <c r="M15" s="3">
+        <v>14880916.610000005</v>
       </c>
     </row>
   </sheetData>
